--- a/biology/Médecine/Liste_des_mutuelles_de_santé_en_France/Liste_des_mutuelles_de_santé_en_France.xlsx
+++ b/biology/Médecine/Liste_des_mutuelles_de_santé_en_France/Liste_des_mutuelles_de_santé_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_mutuelles_de_sant%C3%A9_en_France</t>
+          <t>Liste_des_mutuelles_de_santé_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article contient une liste :
 des mutuelle de santé de France régies par le Code de la mutualité,
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_mutuelles_de_sant%C3%A9_en_France</t>
+          <t>Liste_des_mutuelles_de_santé_en_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_mutuelles_de_sant%C3%A9_en_France</t>
+          <t>Liste_des_mutuelles_de_santé_en_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,6 +554,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,7 +563,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_mutuelles_de_sant%C3%A9_en_France</t>
+          <t>Liste_des_mutuelles_de_santé_en_France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -566,6 +582,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -573,7 +591,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_mutuelles_de_sant%C3%A9_en_France</t>
+          <t>Liste_des_mutuelles_de_santé_en_France</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -592,6 +610,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -599,7 +619,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_mutuelles_de_sant%C3%A9_en_France</t>
+          <t>Liste_des_mutuelles_de_santé_en_France</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -618,6 +638,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -625,7 +647,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_mutuelles_de_sant%C3%A9_en_France</t>
+          <t>Liste_des_mutuelles_de_santé_en_France</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -644,6 +666,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -651,7 +675,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_mutuelles_de_sant%C3%A9_en_France</t>
+          <t>Liste_des_mutuelles_de_santé_en_France</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -670,6 +694,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -677,7 +703,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_mutuelles_de_sant%C3%A9_en_France</t>
+          <t>Liste_des_mutuelles_de_santé_en_France</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -696,6 +722,8 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
